--- a/docs/2程序设计/后台接口定义文档_hj.xlsx
+++ b/docs/2程序设计/后台接口定义文档_hj.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="142">
   <si>
     <t>接口名</t>
   </si>
@@ -114,6 +114,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>i</t>
@@ -123,6 +124,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>nt</t>
@@ -164,6 +166,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>月份日期（M</t>
@@ -173,6 +176,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>M</t>
@@ -182,6 +186,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>）</t>
@@ -215,6 +220,7 @@
         <sz val="9"/>
         <color rgb="FF008000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>/regionRisk/</t>
@@ -225,6 +231,7 @@
         <sz val="9"/>
         <color rgb="FF008000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>warningChartSingle</t>
@@ -242,6 +249,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>月份日期（YYYYMM</t>
@@ -251,6 +259,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>）</t>
@@ -286,6 +295,7 @@
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>creditWarningInfoData</t>
@@ -295,6 +305,7 @@
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>List</t>
@@ -381,6 +392,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>Map</t>
@@ -390,6 +402,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>&lt;String,List&lt;String&gt;&gt;</t>
@@ -552,6 +565,18 @@
   </si>
   <si>
     <t>带时分秒的时间，用于页面展示</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>newsCode</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>新闻ID</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -571,6 +596,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -578,6 +604,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -585,6 +612,7 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -592,6 +620,7 @@
       <sz val="9"/>
       <color rgb="FF008000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -599,6 +628,7 @@
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -606,12 +636,14 @@
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -619,11 +651,13 @@
       <sz val="9"/>
       <color rgb="FF008000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -806,6 +840,12 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -814,17 +854,11 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1242,22 +1276,22 @@
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="31"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="32"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="34"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="33"/>
-      <c r="B9" s="34"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
+      <c r="A9" s="30"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
       <c r="E9" s="8" t="s">
         <v>8</v>
       </c>
@@ -1308,24 +1342,24 @@
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="31"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="32"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="34"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="33" t="s">
+      <c r="A13" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="34"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
       <c r="E13" s="8" t="s">
         <v>8</v>
       </c>
@@ -1523,24 +1557,24 @@
       <c r="H26" s="12"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="30" t="s">
+      <c r="A27" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="B27" s="31"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="31"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
       <c r="E27" s="23"/>
       <c r="F27" s="23"/>
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="33" t="s">
+      <c r="A28" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="B28" s="34"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="34"/>
+      <c r="B28" s="31"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="31"/>
       <c r="E28" s="8" t="s">
         <v>8</v>
       </c>
@@ -1714,20 +1748,20 @@
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="31"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="32"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="34"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="33"/>
-      <c r="B9" s="34"/>
-      <c r="C9" s="34"/>
+      <c r="A9" s="30"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
       <c r="D9" s="8" t="s">
         <v>8</v>
       </c>
@@ -1776,22 +1810,22 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="31"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="32"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="34"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="33" t="s">
+      <c r="A13" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="34"/>
-      <c r="C13" s="34"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
       <c r="D13" s="8" t="s">
         <v>8</v>
       </c>
@@ -1949,22 +1983,22 @@
       <c r="G24" s="12"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="30" t="s">
+      <c r="A25" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="31"/>
-      <c r="C25" s="31"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
       <c r="D25" s="23"/>
       <c r="E25" s="23"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="33" t="s">
+      <c r="A26" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="B26" s="34"/>
-      <c r="C26" s="34"/>
+      <c r="B26" s="31"/>
+      <c r="C26" s="31"/>
       <c r="D26" s="8" t="s">
         <v>8</v>
       </c>
@@ -2141,22 +2175,22 @@
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="31"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="32"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="34"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="33"/>
-      <c r="B9" s="34"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
+      <c r="A9" s="30"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
       <c r="E9" s="8" t="s">
         <v>8</v>
       </c>
@@ -2207,24 +2241,24 @@
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="31"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="32"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="34"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="33" t="s">
+      <c r="A13" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="34"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
       <c r="E13" s="8" t="s">
         <v>8</v>
       </c>
@@ -2539,24 +2573,24 @@
       <c r="H34" s="25"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="30" t="s">
+      <c r="A35" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="B35" s="31"/>
-      <c r="C35" s="31"/>
-      <c r="D35" s="31"/>
+      <c r="B35" s="33"/>
+      <c r="C35" s="33"/>
+      <c r="D35" s="33"/>
       <c r="E35" s="23"/>
       <c r="F35" s="23"/>
       <c r="G35" s="8"/>
       <c r="H35" s="8"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="33" t="s">
+      <c r="A36" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="B36" s="34"/>
-      <c r="C36" s="34"/>
-      <c r="D36" s="34"/>
+      <c r="B36" s="31"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="31"/>
       <c r="E36" s="8" t="s">
         <v>8</v>
       </c>
@@ -2759,16 +2793,16 @@
       <c r="M6" s="1"/>
     </row>
     <row r="7" spans="1:13" s="18" customFormat="1">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="32"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="34"/>
       <c r="I7" s="1"/>
       <c r="J7" s="27"/>
       <c r="K7" s="27"/>
@@ -2776,10 +2810,10 @@
       <c r="M7" s="17"/>
     </row>
     <row r="8" spans="1:13" s="18" customFormat="1">
-      <c r="A8" s="33"/>
-      <c r="B8" s="34"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
+      <c r="A8" s="30"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
       <c r="E8" s="8" t="s">
         <v>8</v>
       </c>
@@ -2843,16 +2877,16 @@
       <c r="M10" s="12"/>
     </row>
     <row r="11" spans="1:13" s="18" customFormat="1">
-      <c r="A11" s="30" t="s">
+      <c r="A11" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="32"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="34"/>
       <c r="I11" s="1"/>
       <c r="J11" s="12"/>
       <c r="K11" s="12"/>
@@ -2860,12 +2894,12 @@
       <c r="M11" s="12"/>
     </row>
     <row r="12" spans="1:13" s="18" customFormat="1">
-      <c r="A12" s="33" t="s">
+      <c r="A12" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="34"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
       <c r="E12" s="8" t="s">
         <v>8</v>
       </c>
@@ -2969,12 +3003,12 @@
       <c r="M16" s="1"/>
     </row>
     <row r="17" spans="1:13" s="18" customFormat="1">
-      <c r="A17" s="35" t="s">
+      <c r="A17" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="35"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
@@ -2986,12 +3020,12 @@
       <c r="M17" s="1"/>
     </row>
     <row r="18" spans="1:13" s="18" customFormat="1">
-      <c r="A18" s="36" t="s">
+      <c r="A18" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="36"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
       <c r="E18" s="8" t="s">
         <v>8</v>
       </c>
@@ -3180,16 +3214,16 @@
       <c r="M6" s="1"/>
     </row>
     <row r="7" spans="1:13" s="18" customFormat="1">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="32"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="34"/>
       <c r="I7" s="1"/>
       <c r="J7" s="27"/>
       <c r="K7" s="27"/>
@@ -3197,10 +3231,10 @@
       <c r="M7" s="17"/>
     </row>
     <row r="8" spans="1:13" s="18" customFormat="1">
-      <c r="A8" s="33"/>
-      <c r="B8" s="34"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
+      <c r="A8" s="30"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
       <c r="E8" s="8" t="s">
         <v>8</v>
       </c>
@@ -3262,16 +3296,16 @@
       <c r="M10" s="12"/>
     </row>
     <row r="11" spans="1:13" s="18" customFormat="1">
-      <c r="A11" s="30" t="s">
+      <c r="A11" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="32"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="34"/>
       <c r="I11" s="1"/>
       <c r="J11" s="12"/>
       <c r="K11" s="12"/>
@@ -3279,12 +3313,12 @@
       <c r="M11" s="12"/>
     </row>
     <row r="12" spans="1:13" s="18" customFormat="1">
-      <c r="A12" s="33" t="s">
+      <c r="A12" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="34"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
       <c r="E12" s="8" t="s">
         <v>8</v>
       </c>
@@ -3531,12 +3565,12 @@
       <c r="M23" s="1"/>
     </row>
     <row r="24" spans="1:13" s="18" customFormat="1">
-      <c r="A24" s="35" t="s">
+      <c r="A24" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="B24" s="35"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="35"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
@@ -3548,12 +3582,12 @@
       <c r="M24" s="1"/>
     </row>
     <row r="25" spans="1:13" s="18" customFormat="1">
-      <c r="A25" s="36" t="s">
+      <c r="A25" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="B25" s="36"/>
-      <c r="C25" s="36"/>
-      <c r="D25" s="36"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="35"/>
       <c r="E25" s="8" t="s">
         <v>8</v>
       </c>
@@ -3620,10 +3654,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L33"/>
+  <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3998,82 +4032,97 @@
       <c r="G26" s="12"/>
     </row>
     <row r="27" spans="1:7" s="1" customFormat="1" ht="12">
-      <c r="A27" s="4" t="s">
-        <v>134</v>
-      </c>
+      <c r="A27" s="4"/>
       <c r="B27" s="4"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
+      <c r="C27" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>140</v>
+      </c>
       <c r="E27" s="10"/>
       <c r="F27" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="G27" s="12"/>
+    </row>
+    <row r="28" spans="1:7" s="1" customFormat="1" ht="12">
+      <c r="A28" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B28" s="4"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="G27" s="12"/>
-    </row>
-    <row r="28" spans="1:7" s="1" customFormat="1" ht="12">
-      <c r="A28" s="10" t="s">
+      <c r="G28" s="12"/>
+    </row>
+    <row r="29" spans="1:7" s="1" customFormat="1" ht="12">
+      <c r="A29" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="12"/>
-    </row>
-    <row r="29" spans="1:7" s="1" customFormat="1" ht="12">
-      <c r="A29" s="7" t="s">
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="12"/>
+    </row>
+    <row r="30" spans="1:7" s="1" customFormat="1" ht="12">
+      <c r="A30" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="8" t="s">
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="8" t="s">
+      <c r="E30" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F29" s="8" t="s">
+      <c r="F30" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G29" s="8" t="s">
+      <c r="G30" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:7" s="1" customFormat="1" ht="12">
-      <c r="A30" s="8"/>
-      <c r="B30" s="8" t="s">
+    <row r="31" spans="1:7" s="1" customFormat="1" ht="12">
+      <c r="A31" s="8"/>
+      <c r="B31" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="9" t="s">
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="G30" s="8"/>
-    </row>
-    <row r="31" spans="1:7" s="1" customFormat="1" ht="12">
-      <c r="A31" s="12"/>
-      <c r="B31" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="10"/>
+      <c r="G31" s="8"/>
     </row>
     <row r="32" spans="1:7" s="1" customFormat="1" ht="12">
       <c r="A32" s="12"/>
-      <c r="B32" s="16"/>
+      <c r="B32" s="16" t="s">
+        <v>43</v>
+      </c>
       <c r="C32" s="10"/>
       <c r="D32" s="10"/>
       <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
+      <c r="F32" s="16"/>
       <c r="G32" s="10"/>
     </row>
-    <row r="33" s="1" customFormat="1" ht="12"/>
+    <row r="33" spans="1:7" s="1" customFormat="1" ht="12">
+      <c r="A33" s="12"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+    </row>
+    <row r="34" spans="1:7" s="1" customFormat="1" ht="12"/>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
